--- a/Aula_Pratica_05/Preparação do 2.3.xlsx
+++ b/Aula_Pratica_05/Preparação do 2.3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Linguagem Simbólica</t>
   </si>
@@ -60,14 +60,62 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t xml:space="preserve"> ← </t>
+    <t>A ← A - X</t>
+  </si>
+  <si>
+    <t>A ← A &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>JNZ(11)</t>
+  </si>
+  <si>
+    <t>JNZ(0)</t>
+  </si>
+  <si>
+    <t>R1 ← X</t>
+  </si>
+  <si>
+    <t>A - X</t>
+  </si>
+  <si>
+    <t>Sinal</t>
+  </si>
+  <si>
+    <t>Maior Valor</t>
+  </si>
+  <si>
+    <t>Maior</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>00000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -75,15 +123,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -104,7 +143,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,14 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,19 +210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,39 +219,68 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +565,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
@@ -521,307 +575,426 @@
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="10" width="7.77734375" style="10" customWidth="1"/>
+    <col min="9" max="10" width="7.77734375" style="7" customWidth="1"/>
     <col min="11" max="24" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="22" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="9" t="str">
+      <c r="B3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="5" t="str">
         <f t="shared" ref="I3" si="0">BIN2HEX(CONCATENATE(B3,C3,D3))</f>
-        <v>0</v>
+        <v>30</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <f t="shared" ref="J3" si="1">BIN2DEC(CONCATENATE(B3,C3,D3))</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="9" t="str">
-        <f t="shared" ref="I4:I13" si="2">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
-        <v>0</v>
+      <c r="I4" s="5" t="str">
+        <f t="shared" ref="I4:I15" si="2">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
+        <v>80</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J13" si="3">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
-        <v>0</v>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J15" si="3">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="9" t="str">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="9" t="str">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="9" t="str">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9" t="str">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9" t="str">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="9" t="str">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="9" t="str">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="9" t="str">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>AB</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="9" t="str">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>A0</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>A0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -833,7 +1006,7 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10665,15 +10838,18 @@
       <c r="H1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E5:H5"/>
+  <mergeCells count="11">
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E12:H13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
